--- a/results/comparaison/GM/retardance/mean_raw_data.xlsx
+++ b/results/comparaison/GM/retardance/mean_raw_data.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:AE3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:31">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -388,65 +388,267 @@
       <c r="F1" s="1">
         <v>4</v>
       </c>
+      <c r="G1" s="1">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="1">
+        <v>29</v>
+      </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:31">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>8.438263641898102</v>
+        <v>13.64456233467554</v>
       </c>
       <c r="C2">
-        <v>11.65601603877052</v>
+        <v>11.98539419405061</v>
       </c>
       <c r="D2">
-        <v>12.82408685020852</v>
+        <v>23.77184039123017</v>
       </c>
       <c r="E2">
-        <v>11.94803550759042</v>
+        <v>7.285319541084635</v>
       </c>
       <c r="F2">
-        <v>20.16048522866888</v>
+        <v>9.697986272140662</v>
+      </c>
+      <c r="G2">
+        <v>13.36498067638051</v>
+      </c>
+      <c r="H2">
+        <v>8.870687228022719</v>
+      </c>
+      <c r="I2">
+        <v>9.781960602166228</v>
+      </c>
+      <c r="J2">
+        <v>8.158786512429801</v>
+      </c>
+      <c r="K2">
+        <v>15.92381684463638</v>
+      </c>
+      <c r="L2">
+        <v>11.25878911911101</v>
+      </c>
+      <c r="M2">
+        <v>11.01439385069809</v>
+      </c>
+      <c r="N2">
+        <v>6.571976450158656</v>
+      </c>
+      <c r="O2">
+        <v>6.673887180928525</v>
+      </c>
+      <c r="P2">
+        <v>6.227173445942213</v>
+      </c>
+      <c r="Q2">
+        <v>8.408764289090254</v>
+      </c>
+      <c r="R2">
+        <v>8.216475714830262</v>
+      </c>
+      <c r="S2">
+        <v>15.31910079507242</v>
+      </c>
+      <c r="T2">
+        <v>15.54197655891093</v>
+      </c>
+      <c r="U2">
+        <v>12.10159974261396</v>
+      </c>
+      <c r="V2">
+        <v>8.916168469935958</v>
+      </c>
+      <c r="W2">
+        <v>13.8734465743231</v>
+      </c>
+      <c r="X2">
+        <v>18.23373324156749</v>
+      </c>
+      <c r="Y2">
+        <v>9.438477028353423</v>
+      </c>
+      <c r="Z2">
+        <v>25.10953080593228</v>
+      </c>
+      <c r="AA2">
+        <v>29.30304816586464</v>
+      </c>
+      <c r="AB2">
+        <v>14.04176896988321</v>
+      </c>
+      <c r="AC2">
+        <v>7.724954647394064</v>
+      </c>
+      <c r="AD2">
+        <v>6.261385877433364</v>
+      </c>
+      <c r="AE2">
+        <v>9.072685468942868</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:31">
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3">
-        <v>6.18693530055886</v>
-      </c>
       <c r="C3">
-        <v>16.79022838632025</v>
+        <v>5.655210559406678</v>
       </c>
       <c r="D3">
-        <v>15.54506393332246</v>
+        <v>12.2394685348885</v>
       </c>
       <c r="E3">
-        <v>8.836880101429401</v>
+        <v>7.666833097812646</v>
       </c>
       <c r="F3">
-        <v>9.812536029769475</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4">
-        <v>11.72149390420637</v>
-      </c>
-      <c r="C4">
-        <v>11.04279348398758</v>
-      </c>
-      <c r="D4">
-        <v>6.966314305005085</v>
-      </c>
-      <c r="E4">
-        <v>7.601716000906051</v>
-      </c>
-      <c r="F4">
-        <v>7.946265146400443</v>
+        <v>11.2144236658805</v>
+      </c>
+      <c r="G3">
+        <v>8.22985864123712</v>
+      </c>
+      <c r="H3">
+        <v>10.06036536703906</v>
+      </c>
+      <c r="I3">
+        <v>5.040503344891205</v>
+      </c>
+      <c r="J3">
+        <v>5.804096021689959</v>
+      </c>
+      <c r="K3">
+        <v>10.06583533863566</v>
+      </c>
+      <c r="L3">
+        <v>12.85758960918767</v>
+      </c>
+      <c r="M3">
+        <v>9.566036136463698</v>
+      </c>
+      <c r="N3">
+        <v>12.35957818525384</v>
+      </c>
+      <c r="O3">
+        <v>6.297814085774628</v>
+      </c>
+      <c r="P3">
+        <v>6.587096917227605</v>
+      </c>
+      <c r="Q3">
+        <v>10.14369837524485</v>
+      </c>
+      <c r="R3">
+        <v>7.586141886067636</v>
+      </c>
+      <c r="S3">
+        <v>16.82672911231467</v>
+      </c>
+      <c r="T3">
+        <v>7.869109877926696</v>
+      </c>
+      <c r="U3">
+        <v>6.98816940179042</v>
+      </c>
+      <c r="V3">
+        <v>9.700749104116571</v>
+      </c>
+      <c r="W3">
+        <v>7.944245371991584</v>
+      </c>
+      <c r="X3">
+        <v>9.142379714590977</v>
+      </c>
+      <c r="Y3">
+        <v>5.964790353310526</v>
+      </c>
+      <c r="Z3">
+        <v>7.441644244424333</v>
+      </c>
+      <c r="AA3">
+        <v>12.93962380713346</v>
+      </c>
+      <c r="AB3">
+        <v>5.241675300003034</v>
+      </c>
+      <c r="AC3">
+        <v>6.992215440859028</v>
+      </c>
+      <c r="AD3">
+        <v>6.622534656855228</v>
+      </c>
+      <c r="AE3">
+        <v>11.28863229070666</v>
       </c>
     </row>
   </sheetData>
